--- a/PERSONAS_DESAP_Y_NO_LOC_XEDO_Df.xlsx
+++ b/PERSONAS_DESAP_Y_NO_LOC_XEDO_Df.xlsx
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>11827</v>
+        <v>11826</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5284</v>
+        <v>5285</v>
       </c>
     </row>
     <row r="18">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1830</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="20">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="25">
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3634</v>
+        <v>3633</v>
       </c>
     </row>
     <row r="34">

--- a/PERSONAS_DESAP_Y_NO_LOC_XEDO_Df.xlsx
+++ b/PERSONAS_DESAP_Y_NO_LOC_XEDO_Df.xlsx
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>11826</v>
+        <v>11827</v>
       </c>
     </row>
     <row r="17">

--- a/PERSONAS_DESAP_Y_NO_LOC_XEDO_Df.xlsx
+++ b/PERSONAS_DESAP_Y_NO_LOC_XEDO_Df.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="5">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1477</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1218</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2842</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="13">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>11827</v>
+        <v>11833</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5285</v>
+        <v>5287</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1850</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="19">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>6444</v>
+        <v>6438</v>
       </c>
     </row>
     <row r="21">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5569</v>
+        <v>5570</v>
       </c>
     </row>
     <row r="27">

--- a/PERSONAS_DESAP_Y_NO_LOC_XEDO_Df.xlsx
+++ b/PERSONAS_DESAP_Y_NO_LOC_XEDO_Df.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>385</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2376</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>910</v>
+        <v>913</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3577</v>
+        <v>3569</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1478</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1220</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3516</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5517</v>
+        <v>5546</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2841</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="13">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>829</v>
+        <v>832</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>14977</v>
+        <v>14981</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>11833</v>
+        <v>11840</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5287</v>
+        <v>5283</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1853</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1829</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>6438</v>
+        <v>6328</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2604</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>927</v>
+        <v>932</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>950</v>
+        <v>973</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5570</v>
+        <v>5547</v>
       </c>
     </row>
     <row r="27">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4347</v>
+        <v>4351</v>
       </c>
     </row>
     <row r="28">
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>12663</v>
+        <v>12691</v>
       </c>
     </row>
     <row r="30">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31">
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>7345</v>
+        <v>7346</v>
       </c>
     </row>
     <row r="32">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="33">
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3633</v>
+        <v>3643</v>
       </c>
     </row>
     <row r="34">

--- a/PERSONAS_DESAP_Y_NO_LOC_XEDO_Df.xlsx
+++ b/PERSONAS_DESAP_Y_NO_LOC_XEDO_Df.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>397</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2367</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>121</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3569</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1476</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1237</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3517</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5546</v>
+        <v>6586</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>802</v>
+        <v>932</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2835</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4097</v>
+        <v>4188</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>832</v>
+        <v>886</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>14981</v>
+        <v>14907</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>11840</v>
+        <v>11897</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5283</v>
+        <v>5510</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1870</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1810</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>6328</v>
+        <v>6527</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>621</v>
+        <v>702</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2616</v>
+        <v>3279</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>529</v>
+        <v>481</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>932</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>973</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5547</v>
+        <v>5486</v>
       </c>
     </row>
     <row r="27">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4351</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="28">
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>12691</v>
+        <v>13137</v>
       </c>
     </row>
     <row r="30">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31">
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>7346</v>
+        <v>7067</v>
       </c>
     </row>
     <row r="32">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>339</v>
+        <v>309</v>
       </c>
     </row>
     <row r="33">
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3643</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="34">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>965</v>
+        <v>945</v>
       </c>
     </row>
   </sheetData>
